--- a/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-organization-nb-permanent-social-help-place</t>
+    <t>https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-organization-nb-permanent-social-help-place</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29</t>
+    <t>2023-03-17T09:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Extension créée dans le cadre du ROR pour indiquer le nombre de places permanentes dédiées à l'aide sociale dans l'établissement</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -240,21 +240,21 @@
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
+    <t>*</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
     <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -887,10 +887,10 @@
         <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>73</v>
@@ -901,10 +901,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -915,7 +915,7 @@
         <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -990,7 +990,7 @@
         <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>73</v>
@@ -1093,10 +1093,10 @@
         <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>92</v>
@@ -1118,10 +1118,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
@@ -1195,10 +1195,10 @@
         <v>93</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>73</v>
@@ -1226,7 +1226,7 @@
         <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
@@ -1301,10 +1301,10 @@
         <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>103</v>

--- a/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T09:52:06+00:00</t>
+    <t>2023-03-17T11:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T11:28:56+00:00</t>
+    <t>2023-03-19T15:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:24:51+00:00</t>
+    <t>2023-03-19T15:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:25:26+00:00</t>
+    <t>2023-03-19T15:25:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:25:59+00:00</t>
+    <t>2023-03-24T16:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-24T16:48:26+00:00</t>
+    <t>2023-04-06T16:24:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T16:24:50+00:00</t>
+    <t>2023-04-07T06:20:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T06:20:05+00:00</t>
+    <t>2023-04-07T09:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T09:27:55+00:00</t>
+    <t>2023-04-07T09:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-organization-nb-permanent-social-help-place</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-nb-permanent-social-help-place</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T09:29:51+00:00</t>
+    <t>2023-04-11T09:33:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:33:07+00:00</t>
+    <t>2023-04-11T13:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T13:02:58+00:00</t>
+    <t>2023-04-12T12:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T12:26:01+00:00</t>
+    <t>2023-04-12T14:42:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:42:58+00:00</t>
+    <t>2023-04-12T15:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T15:04:36+00:00</t>
+    <t>2023-04-12T15:32:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T15:32:06+00:00</t>
+    <t>2023-04-12T16:09:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T16:09:30+00:00</t>
+    <t>2023-04-19T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T09:29:32+00:00</t>
+    <t>2023-04-27T07:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T07:56:45+00:00</t>
+    <t>2023-04-28T06:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T06:37:34+00:00</t>
+    <t>2023-04-28T06:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
+++ b/ig/main/StructureDefinition-ror-organization-nb-permanent-social-help-place.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T06:38:38+00:00</t>
+    <t>2023-05-10T10:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
